--- a/nesh/lambda calculations with revised sigma_m and c_r a quadratic function of L.xlsx
+++ b/nesh/lambda calculations with revised sigma_m and c_r a quadratic function of L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nesh/Documents/Repositories/icecontinuum/nesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49607AA2-CE35-594B-A620-B252447C50E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476DB21A-E9BD-944F-A7CA-3355DF8E115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6380" yWindow="500" windowWidth="22260" windowHeight="15480" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
   </bookViews>
@@ -361,150 +361,162 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$25</c:f>
+              <c:f>Sheet1!$B$4:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>7.6696498884737023</c:v>
+                  <c:v>2.0412414523193148</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.1693045781865616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4253562503633295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7216552697590859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8284271247461894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1622776601683786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4721359549995787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4232614454664034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4232614454664034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7735026918962573</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6.0633906259083226</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4232614454664034</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9014754297667409</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.126781251816645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4232614454664034</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4253562503633295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1693045781865616</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.846522890932807</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.149858514250884</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.253562503633294</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.494897427831784</c:v>
+                  <c:v>6.0858061945018447</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6.3245553203367573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4721359549995787</c:v>
+                  <c:v>7.6696498884737023</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1622776601683786</c:v>
+                  <c:v>9.9014754297667409</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8284271247461894</c:v>
+                  <c:v>9.9014754297667409</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>10.846522890932807</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>11.547005383792515</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.9014754297667409</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7735026918962573</c:v>
+                  <c:v>12.126781251816645</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0858061945018447</c:v>
+                  <c:v>17.149858514250884</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7216552697590859</c:v>
+                  <c:v>24.253562503633294</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0412414523193148</c:v>
+                  <c:v>24.494897427831784</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4253562503633295</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.291986247835695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$25</c:f>
+              <c:f>Sheet1!$E$4:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9.7276264591439698</c:v>
+                  <c:v>3.2258064516129035</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.6581605528973951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9940119760479043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9473684210526319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9638411381149967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4650034650034649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3361792956243335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3964497041420119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8775790921595599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8.0160320641282556</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3964497041420119</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.931034482758621</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.129032258064516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8775790921595599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9940119760479043</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6581605528973951</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.774104683195592</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.739130434782609</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.864197530864196</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.674846625766872</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.8988941548183256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3361792956243335</c:v>
+                  <c:v>9.7276264591439698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4650034650034649</c:v>
+                  <c:v>12.931034482758621</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9638411381149967</c:v>
+                  <c:v>12.096774193548388</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>13.774104683195592</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>15.015015015015015</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.096774193548388</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>16.129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>21.739130434782609</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9473684210526319</c:v>
+                  <c:v>30.864197530864196</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2258064516129035</c:v>
+                  <c:v>30.674846625766872</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0102347983142685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.773195876288661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,8 +2577,8 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2633,36 +2645,36 @@
     <row r="4" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <f>F4^$C$30*C4^$C$33*K4^$C$32*C4^$C$31*10000</f>
-        <v>7.6696498884737023</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
+        <v>2.0412414523193148</v>
+      </c>
+      <c r="C4" s="20">
+        <v>8</v>
       </c>
       <c r="D4" s="10">
-        <v>5.14</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E6" si="0">C4/D4</f>
-        <v>9.7276264591439698</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1E-3</v>
+        <v>2.48</v>
+      </c>
+      <c r="E4" s="21">
+        <f>C4/D4</f>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1E-4</v>
       </c>
       <c r="G4" s="9">
         <v>0.22</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="20">
         <v>0.2</v>
       </c>
       <c r="I4" s="1">
         <f>-0.0378257863 +0.00708508748*C4 -0.000022070865*C4^2</f>
-        <v>0.2612514252</v>
+        <v>1.7442378180000002E-2</v>
       </c>
       <c r="J4" s="20">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="L4"/>
     </row>
@@ -2670,20 +2682,20 @@
       <c r="A5" s="7"/>
       <c r="B5" s="3">
         <f>F5^$C$30*C5^$C$33*K5^$C$32*C5^$C$31*10000</f>
-        <v>6.0633906259083226</v>
+        <v>2.1693045781865616</v>
       </c>
       <c r="C5" s="20">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10">
-        <v>9.98</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" si="0"/>
-        <v>8.0160320641282556</v>
+        <f>C5/D5</f>
+        <v>2.6581605528973951</v>
       </c>
       <c r="F5" s="22">
-        <v>1E-3</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G5" s="9">
         <v>0.22</v>
@@ -2692,8 +2704,8 @@
         <v>0.2</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5" si="1">-0.0378257863 +0.00708508748*C5 -0.000022070865*C5^2</f>
-        <v>0.38772767610000003</v>
+        <f>-0.0378257863 +0.00708508748*C5 -0.000022070865*C5^2</f>
+        <v>0.2612514252</v>
       </c>
       <c r="J5" s="20">
         <v>1</v>
@@ -2701,7 +2713,6 @@
       <c r="K5">
         <v>34</v>
       </c>
-      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -2711,20 +2722,20 @@
       <c r="A6" s="7"/>
       <c r="B6" s="3">
         <f>F6^$C$30*C6^$C$33*K6^$C$32*C6^$C$31*10000</f>
-        <v>5.4232614454664034</v>
+        <v>2.4253562503633295</v>
       </c>
       <c r="C6" s="20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" s="10">
-        <v>13.52</v>
+        <v>16.7</v>
       </c>
       <c r="E6" s="21">
-        <f t="shared" si="0"/>
-        <v>7.3964497041420119</v>
+        <f>C6/D6</f>
+        <v>2.9940119760479043</v>
       </c>
       <c r="F6" s="22">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="G6" s="9">
         <v>0.22</v>
@@ -2734,7 +2745,7 @@
       </c>
       <c r="I6" s="1">
         <f>-0.0378257863 +0.00708508748*C6 -0.000022070865*C6^2</f>
-        <v>0.44997431169999996</v>
+        <v>0.2612514252</v>
       </c>
       <c r="J6" s="20">
         <v>1</v>
@@ -2742,7 +2753,6 @@
       <c r="K6">
         <v>34</v>
       </c>
-      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -2751,20 +2761,20 @@
     <row r="7" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f>F7^$C$30*C7^$C$33*K7^$C$32*C7^$C$31*10000</f>
-        <v>9.9014754297667409</v>
+        <v>2.7216552697590859</v>
       </c>
       <c r="C7" s="20">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
-        <v>2.3199999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" ref="E7" si="2">C7/D7</f>
-        <v>12.931034482758621</v>
+        <f>C7/D7</f>
+        <v>3.9473684210526319</v>
       </c>
       <c r="F7" s="22">
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G7" s="9">
         <v>0.22</v>
@@ -2773,144 +2783,142 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7" si="3">-0.0378257863 +0.00708508748*C7 -0.000022070865*C7^2</f>
-        <v>0.15486305960000002</v>
+        <f>-0.0378257863 +0.00708508748*C7 -0.000022070865*C7^2</f>
+        <v>2.4152260955000004E-2</v>
       </c>
       <c r="J7" s="20">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>F8^$C$30*C8^$C$33*K8^$C$32*C8^$C$31*10000</f>
-        <v>12.126781251816645</v>
-      </c>
-      <c r="C8" s="20">
-        <v>20</v>
+        <v>2.8284271247461894</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
       </c>
       <c r="D8" s="10">
-        <v>1.24</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" ref="E8" si="4">C8/D8</f>
-        <v>16.129032258064516</v>
-      </c>
-      <c r="F8" s="22">
+        <v>16.87</v>
+      </c>
+      <c r="E8" s="4">
+        <f>C8/D8</f>
+        <v>2.9638411381149967</v>
+      </c>
+      <c r="F8" s="2">
         <v>1E-3</v>
       </c>
       <c r="G8" s="9">
         <v>0.22</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8">
         <v>0.2</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8" si="5">-0.0378257863 +0.00708508748*C8 -0.000022070865*C8^2</f>
-        <v>9.5047617300000012E-2</v>
+        <f>-0.0378257863 +0.00708508748*C8 -0.000022070865*C8^2</f>
+        <v>0.2612514252</v>
       </c>
       <c r="J8" s="20">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f>F9^$C$30*C9^$C$33*K9^$C$32*C9^$C$31*10000</f>
-        <v>5.4232614454664034</v>
-      </c>
-      <c r="C9" s="20">
+        <v>3.1622776601683786</v>
+      </c>
+      <c r="C9">
         <v>50</v>
       </c>
       <c r="D9" s="10">
-        <v>7.27</v>
-      </c>
-      <c r="E9" s="21">
-        <f t="shared" ref="E9" si="6">C9/D9</f>
-        <v>6.8775790921595599</v>
-      </c>
-      <c r="F9" s="22">
-        <v>5.0000000000000001E-4</v>
+        <v>14.43</v>
+      </c>
+      <c r="E9" s="4">
+        <f>C9/D9</f>
+        <v>3.4650034650034649</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1E-3</v>
       </c>
       <c r="G9" s="9">
         <v>0.22</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9">
         <v>0.2</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9" si="7">-0.0378257863 +0.00708508748*C9 -0.000022070865*C9^2</f>
+        <f>-0.0378257863 +0.00708508748*C9 -0.000022070865*C9^2</f>
         <v>0.2612514252</v>
       </c>
       <c r="J9" s="20">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>34</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L9"/>
     </row>
     <row r="10" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f>F10^$C$30*C10^$C$33*K10^$C$32*C10^$C$31*10000</f>
-        <v>2.4253562503633295</v>
-      </c>
-      <c r="C10" s="20">
+        <v>4.4721359549995787</v>
+      </c>
+      <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="10">
-        <v>16.7</v>
-      </c>
-      <c r="E10" s="21">
-        <f t="shared" ref="E10" si="8">C10/D10</f>
-        <v>2.9940119760479043</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1E-4</v>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E10" s="4">
+        <f>C10/D10</f>
+        <v>5.3361792956243335</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1E-3</v>
       </c>
       <c r="G10" s="9">
         <v>0.22</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10">
         <v>0.2</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ref="I10" si="9">-0.0378257863 +0.00708508748*C10 -0.000022070865*C10^2</f>
+        <f>-0.0378257863 +0.00708508748*C10 -0.000022070865*C10^2</f>
         <v>0.2612514252</v>
       </c>
       <c r="J10" s="20">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>F11^$C$30*C11^$C$33*K11^$C$32*C11^$C$31*10000</f>
-        <v>2.1693045781865616</v>
+        <v>5.4232614454664034</v>
       </c>
       <c r="C11" s="20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D11" s="10">
-        <v>18.809999999999999</v>
+        <v>13.52</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" ref="E11" si="10">C11/D11</f>
-        <v>2.6581605528973951</v>
+        <f>C11/D11</f>
+        <v>7.3964497041420119</v>
       </c>
       <c r="F11" s="22">
-        <v>8.0000000000000007E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="G11" s="9">
         <v>0.22</v>
@@ -2919,8 +2927,8 @@
         <v>0.2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11" si="11">-0.0378257863 +0.00708508748*C11 -0.000022070865*C11^2</f>
-        <v>0.2612514252</v>
+        <f>-0.0378257863 +0.00708508748*C11 -0.000022070865*C11^2</f>
+        <v>0.44997431169999996</v>
       </c>
       <c r="J11" s="20">
         <v>1</v>
@@ -2928,25 +2936,24 @@
       <c r="K11">
         <v>34</v>
       </c>
-      <c r="L11"/>
     </row>
     <row r="12" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f>F12^$C$30*C12^$C$33*K12^$C$32*C12^$C$31*10000</f>
-        <v>10.846522890932807</v>
+        <v>5.4232614454664034</v>
       </c>
       <c r="C12" s="20">
         <v>50</v>
       </c>
       <c r="D12" s="10">
-        <v>3.63</v>
+        <v>7.27</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" ref="E12" si="12">C12/D12</f>
-        <v>13.774104683195592</v>
+        <f>C12/D12</f>
+        <v>6.8775790921595599</v>
       </c>
       <c r="F12" s="22">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G12" s="9">
         <v>0.22</v>
@@ -2955,7 +2962,7 @@
         <v>0.2</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12" si="13">-0.0378257863 +0.00708508748*C12 -0.000022070865*C12^2</f>
+        <f>-0.0378257863 +0.00708508748*C12 -0.000022070865*C12^2</f>
         <v>0.2612514252</v>
       </c>
       <c r="J12" s="20">
@@ -2964,7 +2971,6 @@
       <c r="K12">
         <v>34</v>
       </c>
-      <c r="L12"/>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
@@ -2972,20 +2978,20 @@
     <row r="13" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f>F13^$C$30*C13^$C$33*K13^$C$32*C13^$C$31*10000</f>
-        <v>17.149858514250884</v>
+        <v>5.7735026918962573</v>
       </c>
       <c r="C13" s="20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10">
-        <v>2.2999999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" ref="E13" si="14">C13/D13</f>
-        <v>21.739130434782609</v>
+        <f>C13/D13</f>
+        <v>8</v>
       </c>
       <c r="F13" s="22">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G13" s="9">
         <v>0.22</v>
@@ -2994,34 +3000,34 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13" si="15">-0.0378257863 +0.00708508748*C13 -0.000022070865*C13^2</f>
-        <v>0.2612514252</v>
+        <f>-0.0378257863 +0.00708508748*C13 -0.000022070865*C13^2</f>
+        <v>3.0818002000000008E-2</v>
       </c>
       <c r="J13" s="20">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f>F14^$C$30*C14^$C$33*K14^$C$32*C14^$C$31*10000</f>
-        <v>24.253562503633294</v>
+        <v>6.0633906259083226</v>
       </c>
       <c r="C14" s="20">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D14" s="10">
-        <v>1.62</v>
+        <v>9.98</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" ref="E14:E15" si="16">C14/D14</f>
-        <v>30.864197530864196</v>
+        <f>C14/D14</f>
+        <v>8.0160320641282556</v>
       </c>
       <c r="F14" s="22">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G14" s="9">
         <v>0.22</v>
@@ -3030,8 +3036,8 @@
         <v>0.2</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14" si="17">-0.0378257863 +0.00708508748*C14 -0.000022070865*C14^2</f>
-        <v>0.2612514252</v>
+        <f>-0.0378257863 +0.00708508748*C14 -0.000022070865*C14^2</f>
+        <v>0.38772767610000003</v>
       </c>
       <c r="J14" s="20">
         <v>1</v>
@@ -3039,41 +3045,40 @@
       <c r="K14">
         <v>34</v>
       </c>
-      <c r="L14"/>
     </row>
     <row r="15" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f>F15^$C$30*C15^$C$33*K15^$C$32*C15^$C$31*10000</f>
-        <v>24.494897427831784</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
+        <v>6.0858061945018447</v>
+      </c>
+      <c r="C15" s="20">
+        <v>9</v>
       </c>
       <c r="D15" s="10">
-        <v>1.63</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="16"/>
-        <v>30.674846625766872</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <f>C15/D15</f>
+        <v>9</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1E-3</v>
       </c>
       <c r="G15" s="9">
         <v>0.22</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="20">
         <v>0.2</v>
       </c>
       <c r="I15" s="1">
         <f>-0.0378257863 +0.00708508748*C15 -0.000022070865*C15^2</f>
-        <v>0.2612514252</v>
+        <v>2.4152260955000004E-2</v>
       </c>
       <c r="J15" s="20">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L15"/>
     </row>
@@ -3090,7 +3095,7 @@
         <v>6.33</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E16" si="18">C16/D16</f>
+        <f>C16/D16</f>
         <v>7.8988941548183256</v>
       </c>
       <c r="F16" s="2">
@@ -3118,20 +3123,20 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f>F17^$C$30*C17^$C$33*K17^$C$32*C17^$C$31*10000</f>
-        <v>4.4721359549995787</v>
+        <v>7.6696498884737023</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17" s="10">
-        <v>9.3699999999999992</v>
+        <v>5.14</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" ref="E17" si="19">C17/D17</f>
-        <v>5.3361792956243335</v>
+        <f>C17/D17</f>
+        <v>9.7276264591439698</v>
       </c>
       <c r="F17" s="2">
         <v>1E-3</v>
@@ -3150,104 +3155,104 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f>F18^$C$30*C18^$C$33*K18^$C$32*C18^$C$31*10000</f>
-        <v>3.1622776601683786</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
+        <v>9.9014754297667409</v>
+      </c>
+      <c r="C18" s="20">
+        <v>30</v>
       </c>
       <c r="D18" s="10">
-        <v>14.43</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" ref="E18" si="20">C18/D18</f>
-        <v>3.4650034650034649</v>
-      </c>
-      <c r="F18" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E18" s="21">
+        <f>C18/D18</f>
+        <v>12.931034482758621</v>
+      </c>
+      <c r="F18" s="22">
         <v>1E-3</v>
       </c>
       <c r="G18" s="9">
         <v>0.22</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="20">
         <v>0.2</v>
       </c>
       <c r="I18" s="1">
         <f>-0.0378257863 +0.00708508748*C18 -0.000022070865*C18^2</f>
-        <v>0.2612514252</v>
+        <v>0.15486305960000002</v>
       </c>
       <c r="J18" s="20">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="L18"/>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f>F19^$C$30*C19^$C$33*K19^$C$32*C19^$C$31*10000</f>
-        <v>2.8284271247461894</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
+        <v>9.9014754297667409</v>
+      </c>
+      <c r="C19" s="20">
+        <v>15</v>
       </c>
       <c r="D19" s="10">
-        <v>16.87</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" ref="E19" si="21">C19/D19</f>
-        <v>2.9638411381149967</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1E-3</v>
+        <v>1.24</v>
+      </c>
+      <c r="E19" s="21">
+        <f>C19/D19</f>
+        <v>12.096774193548388</v>
+      </c>
+      <c r="F19" s="22">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G19" s="9">
         <v>0.22</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="20">
         <v>0.2</v>
       </c>
       <c r="I19" s="1">
         <f>-0.0378257863 +0.00708508748*C19 -0.000022070865*C19^2</f>
-        <v>0.2612514252</v>
+        <v>6.3484581275000007E-2</v>
       </c>
       <c r="J19" s="20">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f>F20^$C$30*C20^$C$33*K20^$C$32*C20^$C$31*10000</f>
-        <v>11.547005383792515</v>
-      </c>
-      <c r="C20">
+        <v>10.846522890932807</v>
+      </c>
+      <c r="C20" s="20">
         <v>50</v>
       </c>
       <c r="D20" s="10">
-        <v>3.33</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" ref="E20" si="22">C20/D20</f>
-        <v>15.015015015015015</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1E-3</v>
+        <v>3.63</v>
+      </c>
+      <c r="E20" s="21">
+        <f>C20/D20</f>
+        <v>13.774104683195592</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2E-3</v>
       </c>
       <c r="G20" s="9">
         <v>0.22</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="20">
         <v>0.2</v>
       </c>
       <c r="I20" s="1">
@@ -3258,60 +3263,63 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="P20" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f>F21^$C$30*C21^$C$33*K21^$C$32*C21^$C$31*10000</f>
-        <v>9.9014754297667409</v>
-      </c>
-      <c r="C21" s="20">
-        <v>15</v>
+        <v>11.547005383792515</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
       </c>
       <c r="D21" s="10">
-        <v>1.24</v>
-      </c>
-      <c r="E21" s="21">
-        <f t="shared" ref="E21" si="23">C21/D21</f>
-        <v>12.096774193548388</v>
-      </c>
-      <c r="F21" s="22">
-        <v>5.0000000000000001E-4</v>
+        <v>3.33</v>
+      </c>
+      <c r="E21" s="4">
+        <f>C21/D21</f>
+        <v>15.015015015015015</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1E-3</v>
       </c>
       <c r="G21" s="9">
         <v>0.22</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21">
         <v>0.2</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21" si="24">-0.0378257863 +0.00708508748*C21 -0.000022070865*C21^2</f>
-        <v>6.3484581275000007E-2</v>
+        <f>-0.0378257863 +0.00708508748*C21 -0.000022070865*C21^2</f>
+        <v>0.2612514252</v>
       </c>
       <c r="J21" s="20">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f>F22^$C$30*C22^$C$33*K22^$C$32*C22^$C$31*10000</f>
-        <v>5.7735026918962573</v>
+        <v>12.126781251816645</v>
       </c>
       <c r="C22" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D22" s="10">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" ref="E22" si="25">C22/D22</f>
-        <v>8</v>
+        <f>C22/D22</f>
+        <v>16.129032258064516</v>
       </c>
       <c r="F22" s="22">
         <v>1E-3</v>
@@ -3323,34 +3331,34 @@
         <v>0.2</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22" si="26">-0.0378257863 +0.00708508748*C22 -0.000022070865*C22^2</f>
-        <v>3.0818002000000008E-2</v>
+        <f>-0.0378257863 +0.00708508748*C22 -0.000022070865*C22^2</f>
+        <v>9.5047617300000012E-2</v>
       </c>
       <c r="J22" s="20">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f>F23^$C$30*C23^$C$33*K23^$C$32*C23^$C$31*10000</f>
-        <v>6.0858061945018447</v>
+        <v>17.149858514250884</v>
       </c>
       <c r="C23" s="20">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D23" s="10">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" ref="E23" si="27">C23/D23</f>
-        <v>9</v>
+        <f>C23/D23</f>
+        <v>21.739130434782609</v>
       </c>
       <c r="F23" s="22">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G23" s="9">
         <v>0.22</v>
@@ -3359,34 +3367,34 @@
         <v>0.2</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ref="I23" si="28">-0.0378257863 +0.00708508748*C23 -0.000022070865*C23^2</f>
-        <v>2.4152260955000004E-2</v>
+        <f>-0.0378257863 +0.00708508748*C23 -0.000022070865*C23^2</f>
+        <v>0.2612514252</v>
       </c>
       <c r="J23" s="20">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="L23"/>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f>F24^$C$30*C24^$C$33*K24^$C$32*C24^$C$31*10000</f>
-        <v>2.7216552697590859</v>
+        <v>24.253562503633294</v>
       </c>
       <c r="C24" s="20">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D24" s="10">
-        <v>2.2799999999999998</v>
+        <v>1.62</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" ref="E24" si="29">C24/D24</f>
-        <v>3.9473684210526319</v>
+        <f>C24/D24</f>
+        <v>30.864197530864196</v>
       </c>
       <c r="F24" s="22">
-        <v>2.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="G24" s="9">
         <v>0.22</v>
@@ -3395,80 +3403,126 @@
         <v>0.2</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24" si="30">-0.0378257863 +0.00708508748*C24 -0.000022070865*C24^2</f>
-        <v>2.4152260955000004E-2</v>
+        <f>-0.0378257863 +0.00708508748*C24 -0.000022070865*C24^2</f>
+        <v>0.2612514252</v>
       </c>
       <c r="J24" s="20">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f>F25^$C$30*C25^$C$33*K25^$C$32*C25^$C$31*10000</f>
-        <v>2.0412414523193148</v>
-      </c>
-      <c r="C25" s="20">
-        <v>8</v>
+        <v>24.494897427831784</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
       </c>
       <c r="D25" s="10">
-        <v>2.48</v>
-      </c>
-      <c r="E25" s="21">
-        <f t="shared" ref="E25" si="31">C25/D25</f>
-        <v>3.2258064516129035</v>
-      </c>
-      <c r="F25" s="22">
-        <v>1E-4</v>
+        <v>1.63</v>
+      </c>
+      <c r="E25" s="4">
+        <f>C25/D25</f>
+        <v>30.674846625766872</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G25" s="9">
         <v>0.22</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25">
         <v>0.2</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25" si="32">-0.0378257863 +0.00708508748*C25 -0.000022070865*C25^2</f>
-        <v>1.7442378180000002E-2</v>
+        <f>-0.0378257863 +0.00708508748*C25 -0.000022070865*C25^2</f>
+        <v>0.2612514252</v>
       </c>
       <c r="J25" s="20">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="20"/>
-      <c r="K26"/>
+    <row r="26" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <f>F26^$C$30*C26^$C$33*K26^$C$32*C26^$C$31*10000</f>
+        <v>2.4253562503633295</v>
+      </c>
+      <c r="C26" s="20">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10">
+        <v>16.61</v>
+      </c>
+      <c r="E26" s="21">
+        <f>C26/D26</f>
+        <v>3.0102347983142685</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="1">
+        <f>-0.0378257863 +0.00708508748*C26 -0.000022070865*C26^2</f>
+        <v>0.2612514252</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>34</v>
+      </c>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="20"/>
-      <c r="K27"/>
+    <row r="27" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <f>F27^$C$30*C27^$C$33*K27^$C$32*C27^$C$31*10000</f>
+        <v>20.291986247835695</v>
+      </c>
+      <c r="C27" s="20">
+        <v>50</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1.94</v>
+      </c>
+      <c r="E27" s="21">
+        <f>C27/D27</f>
+        <v>25.773195876288661</v>
+      </c>
+      <c r="F27" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="1">
+        <f>-0.0378257863 +0.00708508748*C27 -0.000022070865*C27^2</f>
+        <v>0.2612514252</v>
+      </c>
+      <c r="J27" s="20">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>34</v>
+      </c>
       <c r="L27"/>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="20"/>
       <c r="D28" s="10"/>
@@ -3481,27 +3535,27 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="19">
-        <f>MAX(C4:C24)/MIN(C4:C24)</f>
-        <v>11.111111111111111</v>
+        <f>MAX(C4:C27)/MIN(C4:C27)</f>
+        <v>12.5</v>
       </c>
       <c r="D29" s="10"/>
       <c r="F29" s="19">
-        <f>MAX(F4:F22)/MIN(F4:F22)</f>
+        <f>MAX(F4:F27)/MIN(F4:F27)</f>
         <v>187.49999999999997</v>
       </c>
       <c r="G29" s="9"/>
       <c r="I29" s="6"/>
       <c r="K29" s="19">
-        <f>MAX(K4:K22)/MIN(K4:K22)</f>
+        <f>MAX(K4:K27)/MIN(K4:K27)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
@@ -3518,7 +3572,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>9</v>
       </c>
@@ -3529,7 +3583,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -3557,7 +3611,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" ref="E35" si="33">C35/D35</f>
+        <f t="shared" ref="E35" si="0">C35/D35</f>
         <v>7.0175438596491224</v>
       </c>
       <c r="F35" s="22">
@@ -3570,7 +3624,7 @@
         <v>0.2</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35" si="34">-0.0378257863 +0.00708508748*C35 -0.000022070865*C35^2</f>
+        <f t="shared" ref="I35" si="1">-0.0378257863 +0.00708508748*C35 -0.000022070865*C35^2</f>
         <v>0.49456425530000003</v>
       </c>
       <c r="J35" s="13">
@@ -3592,7 +3646,7 @@
         <v>20.47</v>
       </c>
       <c r="E36" s="21">
-        <f t="shared" ref="E36" si="35">C36/D36</f>
+        <f t="shared" ref="E36" si="2">C36/D36</f>
         <v>6.8392769907181243</v>
       </c>
       <c r="F36" s="22">
@@ -3605,7 +3659,7 @@
         <v>0.2</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" ref="I36" si="36">-0.0378257863 +0.00708508748*C36 -0.000022070865*C36^2</f>
+        <f t="shared" ref="I36" si="3">-0.0378257863 +0.00708508748*C36 -0.000022070865*C36^2</f>
         <v>0.52149750690000007</v>
       </c>
       <c r="J36" s="13">
@@ -3627,7 +3681,7 @@
         <v>28.49</v>
       </c>
       <c r="E37" s="21">
-        <f t="shared" ref="E37" si="37">C37/D37</f>
+        <f t="shared" ref="E37" si="4">C37/D37</f>
         <v>7.0200070200070206</v>
       </c>
       <c r="F37" s="22">
@@ -3640,7 +3694,7 @@
         <v>0.2</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" ref="I37" si="38">-0.0378257863 +0.00708508748*C37 -0.000022070865*C37^2</f>
+        <f t="shared" ref="I37" si="5">-0.0378257863 +0.00708508748*C37 -0.000022070865*C37^2</f>
         <v>0.49635710969999991</v>
       </c>
       <c r="J37" s="13">
@@ -3652,7 +3706,7 @@
     </row>
     <row r="38" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <f t="shared" ref="B38" si="39">F38^$C$30*C38^$C$33*K38^$C$32*C38^$C$31*10000</f>
+        <f t="shared" ref="B38" si="6">F38^$C$30*C38^$C$33*K38^$C$32*C38^$C$31*10000</f>
         <v>17.149858514250884</v>
       </c>
       <c r="C38" s="20">
@@ -3662,7 +3716,7 @@
         <v>0.35</v>
       </c>
       <c r="E38" s="21">
-        <f t="shared" ref="E38" si="40">C38/D38</f>
+        <f t="shared" ref="E38" si="7">C38/D38</f>
         <v>28.571428571428573</v>
       </c>
       <c r="F38" s="22">
@@ -3675,7 +3729,7 @@
         <v>0.2</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" ref="I38" si="41">-0.0378257863 +0.00708508748*C38 -0.000022070865*C38^2</f>
+        <f t="shared" ref="I38" si="8">-0.0378257863 +0.00708508748*C38 -0.000022070865*C38^2</f>
         <v>3.0818002000000008E-2</v>
       </c>
       <c r="J38" s="13">
@@ -3727,7 +3781,7 @@
     </row>
     <row r="43" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
-        <f t="shared" ref="B43:B59" si="42">G43</f>
+        <f t="shared" ref="B43:B59" si="9">G43</f>
         <v>0.7</v>
       </c>
       <c r="C43" s="13">
@@ -3737,7 +3791,7 @@
         <v>27.87</v>
       </c>
       <c r="E43" s="15">
-        <f t="shared" ref="E43:E59" si="43">C43/D43</f>
+        <f t="shared" ref="E43:E59" si="10">C43/D43</f>
         <v>2.6910656620021527</v>
       </c>
       <c r="F43" s="16">
@@ -3761,7 +3815,7 @@
     </row>
     <row r="44" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="C44" s="13">
@@ -3771,7 +3825,7 @@
         <v>22.86</v>
       </c>
       <c r="E44" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>3.2808398950131235</v>
       </c>
       <c r="F44" s="16">
@@ -3795,7 +3849,7 @@
     </row>
     <row r="45" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="C45" s="13">
@@ -3805,7 +3859,7 @@
         <v>13.97</v>
       </c>
       <c r="E45" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>5.3686471009305654</v>
       </c>
       <c r="F45" s="16">
@@ -3829,7 +3883,7 @@
     </row>
     <row r="46" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
       <c r="C46" s="13">
@@ -3839,7 +3893,7 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="E46" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>7.5225677031093277</v>
       </c>
       <c r="F46" s="16">
@@ -3863,7 +3917,7 @@
     </row>
     <row r="47" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="C47" s="13">
@@ -3873,7 +3927,7 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="E47" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>8.2964601769911503</v>
       </c>
       <c r="F47" s="16">
@@ -3897,7 +3951,7 @@
     </row>
     <row r="48" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="C48" s="13">
@@ -3907,7 +3961,7 @@
         <v>8.18</v>
       </c>
       <c r="E48" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>9.1687041564792171</v>
       </c>
       <c r="F48" s="16">
@@ -3931,7 +3985,7 @@
     </row>
     <row r="49" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.23</v>
       </c>
       <c r="C49" s="13">
@@ -3941,7 +3995,7 @@
         <v>7.65</v>
       </c>
       <c r="E49" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>9.8039215686274499</v>
       </c>
       <c r="F49" s="16">
@@ -3965,7 +4019,7 @@
     </row>
     <row r="50" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.22</v>
       </c>
       <c r="C50" s="13">
@@ -3975,7 +4029,7 @@
         <v>7.54</v>
       </c>
       <c r="E50" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>9.9469496021220163</v>
       </c>
       <c r="F50" s="16">
@@ -3999,7 +4053,7 @@
     </row>
     <row r="51" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>0.21</v>
       </c>
       <c r="C51" s="13">
@@ -4009,7 +4063,7 @@
         <v>7.83</v>
       </c>
       <c r="E51" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>9.5785440613026811</v>
       </c>
       <c r="F51" s="16">
@@ -4033,7 +4087,7 @@
     </row>
     <row r="52" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.02</v>
       </c>
       <c r="C52" s="13">
@@ -4043,7 +4097,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="E52" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>33.185840707964601</v>
       </c>
       <c r="F52" s="16">
@@ -4067,7 +4121,7 @@
     </row>
     <row r="53" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.03</v>
       </c>
       <c r="C53" s="13">
@@ -4077,7 +4131,7 @@
         <v>2.75</v>
       </c>
       <c r="E53" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>27.272727272727273</v>
       </c>
       <c r="F53" s="16">
@@ -4101,7 +4155,7 @@
     </row>
     <row r="54" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.05</v>
       </c>
       <c r="C54" s="13">
@@ -4111,7 +4165,7 @@
         <v>3.66</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>20.491803278688522</v>
       </c>
       <c r="F54" s="16">
@@ -4135,7 +4189,7 @@
     </row>
     <row r="55" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.1</v>
       </c>
       <c r="C55" s="13">
@@ -4145,7 +4199,7 @@
         <v>5.73</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>13.089005235602093</v>
       </c>
       <c r="F55" s="16">
@@ -4169,7 +4223,7 @@
     </row>
     <row r="56" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.2</v>
       </c>
       <c r="C56" s="13">
@@ -4179,7 +4233,7 @@
         <v>9.76</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>7.6844262295081966</v>
       </c>
       <c r="F56" s="16">
@@ -4203,7 +4257,7 @@
     </row>
     <row r="57" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.3</v>
       </c>
       <c r="C57" s="13">
@@ -4213,7 +4267,7 @@
         <v>13.96</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>5.3724928366762175</v>
       </c>
       <c r="F57" s="16">
@@ -4237,7 +4291,7 @@
     </row>
     <row r="58" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.4</v>
       </c>
       <c r="C58" s="13">
@@ -4247,7 +4301,7 @@
         <v>18.38</v>
       </c>
       <c r="E58" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>4.0805223068552774</v>
       </c>
       <c r="F58" s="16">
@@ -4271,7 +4325,7 @@
     </row>
     <row r="59" spans="2:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="9"/>
         <v>-0.5</v>
       </c>
       <c r="C59" s="13">
@@ -4281,7 +4335,7 @@
         <v>23.11</v>
       </c>
       <c r="E59" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>3.288619645175249</v>
       </c>
       <c r="F59" s="16">
@@ -4589,8 +4643,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P22">
-    <sortCondition ref="B2:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P25">
+    <sortCondition ref="B4:B25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
